--- a/src/main/resources/examples/铁路内燃机.xlsx
+++ b/src/main/resources/examples/铁路内燃机.xlsx
@@ -16,27 +16,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>SCC编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>年份</t>
-  </si>
-  <si>
-    <t>区县名称</t>
-  </si>
-  <si>
-    <t>区县ID</t>
-  </si>
-  <si>
-    <t>SCC编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>燃料类型</t>
-  </si>
-  <si>
-    <t>燃料年使用量(kg)</t>
-  </si>
-  <si>
-    <t>燃料含硫率(g/kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年平均行驶里程（km）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含硫率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2（吨） </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3（吨）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴油</t>
+  </si>
+  <si>
+    <t>燃料年使用量（kg）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -59,10 +105,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,7 +134,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -390,24 +438,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -416,18 +472,100 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1201111101</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C2" s="1">
+        <v>650000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1321312</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
+      <formula1>"汽油,柴油,其他"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/examples/铁路内燃机.xlsx
+++ b/src/main/resources/examples/铁路内燃机.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_EFDEAACEC579469F8EB02EC2365916768EB9952B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F9F6325-2BEE-4FBB-B219-BE8963681FBB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,53 +43,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PM10（吨）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PM25（吨）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CO（吨）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VOC（吨）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SO2（吨） </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOX（吨）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH3（吨）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OC（吨）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC（吨）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>柴油</t>
   </si>
   <si>
     <t>燃料年使用量（kg）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10排放量（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25排放量（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO排放量（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC排放量（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2排放量（吨） </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX排放量（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3排放量（吨）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OC排放量（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC排放量（吨）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,6 +148,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -194,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +231,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,6 +283,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,29 +475,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.62890625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.3671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.47265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.47265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1015625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -482,34 +520,34 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1201111101</v>
       </c>
@@ -520,7 +558,7 @@
         <v>650000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
@@ -562,7 +600,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"汽油,柴油,其他"</formula1>
     </dataValidation>
   </dataValidations>
@@ -572,12 +610,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -585,12 +623,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/examples/铁路内燃机.xlsx
+++ b/src/main/resources/examples/铁路内燃机.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_EFDEAACEC579469F8EB02EC2365916768EB9952B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F9F6325-2BEE-4FBB-B219-BE8963681FBB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2E03213-838F-4E74-B516-7BC97CFB11CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6405" yWindow="2850" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,25 +479,25 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.47265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.47265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1015625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,15 +547,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>1201111101</v>
+        <v>1303301201</v>
       </c>
       <c r="B2" s="1">
         <v>2016</v>
       </c>
       <c r="C2" s="1">
-        <v>650000</v>
+        <v>210101</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -570,13 +570,13 @@
         <v>0.45450000000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -615,7 +615,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -628,7 +628,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
